--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3435AF69-D7CE-1F45-89DD-E2FF972C84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD226188-BEB1-204D-AB34-24EC180875F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,11 +2540,11 @@
     <v>Powered by Refinitiv</v>
     <v>451.15</v>
     <v>274.73</v>
-    <v>1.3085</v>
-    <v>-2.59</v>
-    <v>-6.8110000000000002E-3</v>
-    <v>0.23</v>
-    <v>6.0900000000000006E-4</v>
+    <v>1.2999000000000001</v>
+    <v>-4.66</v>
+    <v>-1.2580000000000001E-2</v>
+    <v>1.92</v>
+    <v>5.2490000000000002E-3</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -2552,26 +2552,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>380.44</v>
+    <v>369.06</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999813587499</v>
+    <v>45070.999570832813</v>
     <v>4</v>
-    <v>375.44</v>
-    <v>173237200000</v>
+    <v>361.72</v>
+    <v>167774112000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>379.97</v>
-    <v>37.494599999999998</v>
-    <v>380.26</v>
-    <v>377.67</v>
-    <v>377.9</v>
+    <v>368.41</v>
+    <v>36.064900000000002</v>
+    <v>370.42</v>
+    <v>365.76</v>
+    <v>367.68</v>
     <v>458700000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>1841641</v>
-    <v>2821393</v>
+    <v>2666564</v>
+    <v>3004259</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -3195,10 +3195,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP102" sqref="AP102"/>
+      <selection pane="bottomRight" activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,15 +5366,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>9.8396682948994663</v>
+        <v>9.5293713506759055</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>36.424978973927672</v>
+        <v>35.276306139613119</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>23.423093564088695</v>
+        <v>22.684439156300702</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.3085</v>
+        <v>1.2999000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.7280925000000004E-2</v>
+        <v>9.6910695000000019E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>2.6047083772323863E-2</v>
+        <v>2.6872441317850042E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="AT101" s="49" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>173237200000</v>
+        <v>167774112000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.9739529162276761</v>
+        <v>0.97312755868214995</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15782,7 +15782,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>177870200000</v>
+        <v>172407112000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.5245496508913216E-2</v>
+        <v>9.4820718588787309E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16259,7 +16259,7 @@
       <c r="AP107" s="39"/>
       <c r="AQ107" s="42">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>179945258454.08188</v>
+        <v>181040016201.74731</v>
       </c>
       <c r="AR107" s="43" t="s">
         <v>148</v>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
-        <v>192277301404.84451</v>
+        <v>193372059152.50995</v>
       </c>
       <c r="AR108" s="43" t="s">
         <v>144</v>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="AT108" s="47">
         <f>AT105</f>
-        <v>9.5245496508913216E-2</v>
+        <v>9.4820718588787309E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="AN110" s="49">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>152435124871.82462</v>
+        <v>153397673725.48535</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="AN113" s="49">
         <f>AN110+AN111-AN112</f>
-        <v>153898124871.82462</v>
+        <v>154860673725.48535</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="AN115" s="58">
         <f>AN113/AN114</f>
-        <v>348.17738510385499</v>
+        <v>350.35504479387026</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16368,8 +16368,8 @@
         <v>157</v>
       </c>
       <c r="AN116" s="57" cm="1">
-        <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>377.9</v>
+        <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
+        <v>365.76</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="AN117" s="53">
         <f>AN115/AN116-1</f>
-        <v>-7.865206376328393E-2</v>
+        <v>-4.2117659684300479E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD226188-BEB1-204D-AB34-24EC180875F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD182BC-A3AB-1744-BB86-C220026B2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,11 +2540,11 @@
     <v>Powered by Refinitiv</v>
     <v>451.15</v>
     <v>274.73</v>
-    <v>1.2999000000000001</v>
-    <v>-4.66</v>
-    <v>-1.2580000000000001E-2</v>
-    <v>1.92</v>
-    <v>5.2490000000000002E-3</v>
+    <v>1.2961</v>
+    <v>23.33</v>
+    <v>5.9505999999999996E-2</v>
+    <v>4.5999999999999996</v>
+    <v>1.1073999999999999E-2</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -2552,26 +2552,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>369.06</v>
+    <v>416.36</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.999570832813</v>
+    <v>45072.999607001562</v>
     <v>4</v>
-    <v>361.72</v>
-    <v>167774112000</v>
+    <v>396.57</v>
+    <v>190539393000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>368.41</v>
-    <v>36.064900000000002</v>
-    <v>370.42</v>
-    <v>365.76</v>
-    <v>367.68</v>
+    <v>396.72</v>
+    <v>38.658099999999997</v>
+    <v>392.06</v>
+    <v>415.39</v>
+    <v>419.99</v>
     <v>458700000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>2666564</v>
-    <v>3004259</v>
+    <v>7833550</v>
+    <v>3243199</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -3195,10 +3195,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP18" sqref="AP18"/>
+      <selection pane="bottomRight" activeCell="AJ121" sqref="AJ121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,15 +5366,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>9.5293713506759055</v>
+        <v>10.822412416221743</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>35.276306139613119</v>
+        <v>40.062950588730025</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>22.684439156300702</v>
+        <v>25.762492293131423</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2999000000000001</v>
+        <v>1.2961</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.6910695000000019E-2</v>
+        <v>9.6747105E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>2.6872441317850042E-2</v>
+        <v>2.3737988394700885E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="AT101" s="49" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>167774112000</v>
+        <v>190539393000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.97312755868214995</v>
+        <v>0.97626201160529913</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15782,7 +15782,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>172407112000</v>
+        <v>195172393000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.4820718588787309E-2</v>
+        <v>9.4904790729993041E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16259,7 +16259,7 @@
       <c r="AP107" s="39"/>
       <c r="AQ107" s="42">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>181040016201.74731</v>
+        <v>180822285461.87869</v>
       </c>
       <c r="AR107" s="43" t="s">
         <v>148</v>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
-        <v>193372059152.50995</v>
+        <v>193154328412.64133</v>
       </c>
       <c r="AR108" s="43" t="s">
         <v>144</v>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="AT108" s="47">
         <f>AT105</f>
-        <v>9.4820718588787309E-2</v>
+        <v>9.4904790729993041E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="AN110" s="49">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>153397673725.48535</v>
+        <v>153206232994.64673</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="AN113" s="49">
         <f>AN110+AN111-AN112</f>
-        <v>154860673725.48535</v>
+        <v>154669232994.64673</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="AN115" s="58">
         <f>AN113/AN114</f>
-        <v>350.35504479387026</v>
+        <v>349.92193143968694</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16369,7 +16369,7 @@
       </c>
       <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
-        <v>365.76</v>
+        <v>415.39</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="AN117" s="53">
         <f>AN115/AN116-1</f>
-        <v>-4.2117659684300479E-2</v>
+        <v>-0.15760627015651085</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD182BC-A3AB-1744-BB86-C220026B2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB74CF-111A-DE40-8702-C38EF93E66CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2538,13 +2538,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>451.15</v>
+    <v>518.74</v>
     <v>274.73</v>
-    <v>1.2961</v>
-    <v>23.33</v>
-    <v>5.9505999999999996E-2</v>
-    <v>4.5999999999999996</v>
-    <v>1.1073999999999999E-2</v>
+    <v>1.3127</v>
+    <v>0.1</v>
+    <v>2.0939999999999999E-4</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -2552,26 +2550,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>416.36</v>
+    <v>481</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999607001562</v>
+    <v>45099.999881180469</v>
     <v>4</v>
-    <v>396.57</v>
-    <v>190539393000</v>
+    <v>473.02010000000001</v>
+    <v>219065946000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>396.72</v>
-    <v>38.658099999999997</v>
-    <v>392.06</v>
-    <v>415.39</v>
-    <v>419.99</v>
+    <v>474.12</v>
+    <v>45.602899999999998</v>
+    <v>477.48</v>
+    <v>477.58</v>
     <v>458700000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>7833550</v>
-    <v>3243199</v>
+    <v>4062</v>
+    <v>5317684</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -2615,8 +2612,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2638,7 +2633,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2655,7 +2649,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2666,16 +2660,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2748,19 +2739,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2814,9 +2799,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2824,9 +2806,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3198,7 +3177,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AI99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ121" sqref="AJ121"/>
+      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,15 +5345,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>10.822412416221743</v>
+        <v>12.442686924911962</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>40.062950588730025</v>
+        <v>46.060964255677042</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>25.762492293131423</v>
+        <v>29.619516765819363</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14802,7 +14781,7 @@
       </c>
       <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.2961</v>
+        <v>1.3127</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15047,7 +15026,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.6747105E-2</v>
+        <v>9.7461735000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15413,7 +15392,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>2.3737988394700885E-2</v>
+        <v>2.0710870939910465E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15536,7 +15515,7 @@
       </c>
       <c r="AT101" s="49" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>190539393000</v>
+        <v>219065946000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15659,7 +15638,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.97626201160529913</v>
+        <v>0.97928912906008958</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15782,7 +15761,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>195172393000</v>
+        <v>223698946000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16065,7 +16044,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.4904790729993041E-2</v>
+        <v>9.5839555852471503E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16259,7 +16238,7 @@
       <c r="AP107" s="39"/>
       <c r="AQ107" s="42">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>180822285461.87869</v>
+        <v>178436240493.32159</v>
       </c>
       <c r="AR107" s="43" t="s">
         <v>148</v>
@@ -16290,7 +16269,7 @@
       </c>
       <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
-        <v>193154328412.64133</v>
+        <v>190768283444.08423</v>
       </c>
       <c r="AR108" s="43" t="s">
         <v>144</v>
@@ -16300,7 +16279,7 @@
       </c>
       <c r="AT108" s="47">
         <f>AT105</f>
-        <v>9.4904790729993041E-2</v>
+        <v>9.5839555852471503E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16315,7 +16294,7 @@
       </c>
       <c r="AN110" s="49">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>153206232994.64673</v>
+        <v>151108434440.63583</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16342,7 +16321,7 @@
       </c>
       <c r="AN113" s="49">
         <f>AN110+AN111-AN112</f>
-        <v>154669232994.64673</v>
+        <v>152571434440.63583</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16360,7 +16339,7 @@
       </c>
       <c r="AN115" s="58">
         <f>AN113/AN114</f>
-        <v>349.92193143968694</v>
+        <v>345.17589560839605</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16369,7 +16348,7 @@
       </c>
       <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
-        <v>415.39</v>
+        <v>477.58</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16378,7 +16357,7 @@
       </c>
       <c r="AN117" s="53">
         <f>AN115/AN116-1</f>
-        <v>-0.15760627015651085</v>
+        <v>-0.27723963397044249</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB74CF-111A-DE40-8702-C38EF93E66CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7AFF5-8B27-BB47-81B3-372020731841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,17 +548,46 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,98 +917,94 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,8 +1055,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ADBE</a:t>
+              <a:t>Adobe</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,10 +1094,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4552527151483411E-2"/>
-          <c:y val="0.12008535778338304"/>
-          <c:w val="0.87045160615340889"/>
-          <c:h val="0.69949993766004581"/>
+          <c:x val="0.10051655629139072"/>
+          <c:y val="0.14345593311880719"/>
+          <c:w val="0.83325827814569531"/>
+          <c:h val="0.66138875541156039"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1294,7 +1273,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A44D-554D-B70F-641976EEB857}"/>
+              <c16:uniqueId val="{00000000-5E6D-6443-A7AF-C9A7C9576A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1303,11 +1282,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1347,127 +1326,127 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>7900000</c:v>
+                  <c:v>3600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18500000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39100000</c:v>
+                  <c:v>21100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60400000</c:v>
+                  <c:v>33700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77400000</c:v>
+                  <c:v>40100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98800000</c:v>
+                  <c:v>51600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88500000</c:v>
+                  <c:v>43600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117000000</c:v>
+                  <c:v>57000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93200000</c:v>
+                  <c:v>6300000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224288000</c:v>
+                  <c:v>93485000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300445000</c:v>
+                  <c:v>153277000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>355474000</c:v>
+                  <c:v>186837000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223958000</c:v>
+                  <c:v>105144000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>425197000</c:v>
+                  <c:v>237751000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>487014000</c:v>
+                  <c:v>287808000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>363576000</c:v>
+                  <c:v>205644000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348170000</c:v>
+                  <c:v>191399000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>429506000</c:v>
+                  <c:v>266344000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>669453000</c:v>
+                  <c:v>450398000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>830111000</c:v>
+                  <c:v>602839000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>987549000</c:v>
+                  <c:v>505809000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1262654000</c:v>
+                  <c:v>723807000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1348777000</c:v>
+                  <c:v>871814000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>987350000</c:v>
+                  <c:v>386508000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1292841000</c:v>
+                  <c:v>774680000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1372387000</c:v>
+                  <c:v>832847000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1486047000</c:v>
+                  <c:v>832775000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>744876000</c:v>
+                  <c:v>289985000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>734698000</c:v>
+                  <c:v>268395000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1277438000</c:v>
+                  <c:v>629551000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1837115000</c:v>
+                  <c:v>1168782000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2538040000</c:v>
+                  <c:v>1693954000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3229610000</c:v>
+                  <c:v>2590774000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4098624000</c:v>
+                  <c:v>2951458000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5049000000</c:v>
+                  <c:v>5260000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6606000000</c:v>
+                  <c:v>4822000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6976000000</c:v>
+                  <c:v>4756000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A44D-554D-B70F-641976EEB857}"/>
+              <c16:uniqueId val="{00000001-5E6D-6443-A7AF-C9A7C9576A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,11 +1455,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1520,7 +1499,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1640,7 +1619,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A44D-554D-B70F-641976EEB857}"/>
+              <c16:uniqueId val="{00000002-5E6D-6443-A7AF-C9A7C9576A76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1654,11 +1633,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1306259760"/>
-        <c:axId val="1202085264"/>
+        <c:axId val="993956879"/>
+        <c:axId val="463726079"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1306259760"/>
+        <c:axId val="993956879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1202085264"/>
+        <c:crossAx val="463726079"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1202085264"/>
+        <c:axId val="463726079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1306259760"/>
+        <c:crossAx val="993956879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1772,10 +1751,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35231794883871997"/>
-          <c:y val="0.90377952755905511"/>
-          <c:w val="0.30330444518106042"/>
-          <c:h val="4.9935454170542931E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.89378389779921652"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.9653710543700708E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2355,22 +2334,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA2B1CE-BC8E-AE49-E120-EB605861E72D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1321962E-5CB5-ECB1-5D1E-00980104D183}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,6 +2368,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2540,9 +2571,9 @@
     <v>Powered by Refinitiv</v>
     <v>518.74</v>
     <v>274.73</v>
-    <v>1.3127</v>
-    <v>0.1</v>
-    <v>2.0939999999999999E-4</v>
+    <v>1.3286</v>
+    <v>3.98</v>
+    <v>8.2690000000000003E-3</v>
     <v>USD</v>
     <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
     <v>29239</v>
@@ -2550,25 +2581,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>481</v>
+    <v>490.42</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999881180469</v>
+    <v>45114.9999092125</v>
     <v>4</v>
-    <v>473.02010000000001</v>
-    <v>219065946000</v>
+    <v>479.86</v>
+    <v>221186100000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>474.12</v>
-    <v>45.602899999999998</v>
-    <v>477.48</v>
-    <v>477.58</v>
-    <v>458700000</v>
+    <v>481.98</v>
+    <v>46.337200000000003</v>
+    <v>481.29</v>
+    <v>485.27</v>
+    <v>455800000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>4062</v>
-    <v>5317684</v>
+    <v>1409</v>
+    <v>4782951</v>
     <v>1997</v>
   </rv>
   <rv s="4">
@@ -2741,10 +2772,10 @@
       <v>5</v>
     </spb>
     <spb s="5">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
     <spb s="6">
@@ -3174,10 +3205,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL126" sqref="AL126"/>
+      <selection pane="bottomRight" activeCell="AQ100" sqref="AQ100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3302,19 +3333,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2023</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3323,124 +3354,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3564,37 +3595,37 @@
       <c r="AL3" s="1">
         <v>17606000000</v>
       </c>
-      <c r="AM3" s="28">
-        <v>19237000000</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>21503000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>23993000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>26627000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>29351000000</v>
+      <c r="AM3" s="24">
+        <v>19317000000</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>21531000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>24092000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>27036000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>29590000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3614,152 +3645,152 @@
         <v>0.38962108731466238</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4" si="1">(G3/F3)-1</f>
         <v>0.36158861885002969</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4" si="2">(H3/G3)-1</f>
         <v>0.15759686547670881</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4" si="3">(I3/H3)-1</f>
         <v>0.17901466716810832</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4" si="4">(J3/I3)-1</f>
         <v>0.90685805422647525</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4" si="5">(K3/J3)-1</f>
         <v>0.27524088323854135</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4" si="6">(L3/K3)-1</f>
         <v>3.1775889728847595E-2</v>
       </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4" si="7">(M3/L3)-1</f>
         <v>0.15934006557643832</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4" si="8">(N3/M3)-1</f>
         <v>-1.8755469385696166E-2</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4" si="9">(O3/N3)-1</f>
         <v>0.13482813305006425</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4" si="10">(P3/O3)-1</f>
         <v>0.24712979868706375</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4" si="11">(Q3/P3)-1</f>
         <v>-2.8947123212816339E-2</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="12">(R3/Q3)-1</f>
         <v>-5.2802263930000315E-2</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4" si="13">(S3/R3)-1</f>
         <v>0.11157481018005</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4" si="14">(T3/S3)-1</f>
         <v>0.28718462033954073</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4" si="15">(U3/T3)-1</f>
         <v>0.17985324445676509</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" si="0"/>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="16">(V3/U3)-1</f>
         <v>0.30970477353392445</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" si="0"/>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4" si="17">(W3/V3)-1</f>
         <v>0.22621869296780961</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" si="0"/>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4" si="18">(X3/W3)-1</f>
         <v>0.13363644798521546</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4" si="19">(Y3/X3)-1</f>
         <v>-0.17711051934850497</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4" si="20">(Z3/Y3)-1</f>
         <v>0.28994895536199539</v>
       </c>
-      <c r="AA4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4" si="21">(AA3/Z3)-1</f>
         <v>0.10954157894736838</v>
       </c>
-      <c r="AB4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="15">
+        <f t="shared" ref="AB4" si="22">(AB3/AA3)-1</f>
         <v>4.4451501781911817E-2</v>
       </c>
-      <c r="AC4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AC4" s="15">
+        <f t="shared" ref="AC4" si="23">(AC3/AB3)-1</f>
         <v>-7.9124104697052E-2</v>
       </c>
-      <c r="AD4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AD4" s="15">
+        <f t="shared" ref="AD4" si="24">(AD3/AC3)-1</f>
         <v>2.2643542675649275E-2</v>
       </c>
-      <c r="AE4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AE4" s="15">
+        <f t="shared" ref="AE4" si="25">(AE3/AD3)-1</f>
         <v>0.15636263236771075</v>
       </c>
-      <c r="AF4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AF4" s="15">
+        <f t="shared" ref="AF4" si="26">(AF3/AE3)-1</f>
         <v>0.22081463268460855</v>
       </c>
-      <c r="AG4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AG4" s="15">
+        <f t="shared" ref="AG4" si="27">(AG3/AF3)-1</f>
         <v>0.24717607008709641</v>
       </c>
-      <c r="AH4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AH4" s="15">
+        <f t="shared" ref="AH4" si="28">(AH3/AG3)-1</f>
         <v>0.23673242708181386</v>
       </c>
-      <c r="AI4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AI4" s="15">
+        <f t="shared" ref="AI4" si="29">(AI3/AH3)-1</f>
         <v>0.23713035470178978</v>
       </c>
-      <c r="AJ4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AJ4" s="15">
+        <f t="shared" ref="AJ4" si="30">(AJ3/AI3)-1</f>
         <v>0.15188057393872878</v>
       </c>
-      <c r="AK4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AK4" s="15">
+        <f t="shared" ref="AK4" si="31">(AK3/AJ3)-1</f>
         <v>0.22668635374572577</v>
       </c>
-      <c r="AL4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AL4" s="15">
+        <f t="shared" ref="AL4" si="32">(AL3/AK3)-1</f>
         <v>0.11536268609439349</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>9.2638873111439368E-2</v>
+        <v>9.7182778598205122E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11779383479752559</v>
+        <v>0.11461407050784289</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11579779565642001</v>
+        <v>0.11894477729784958</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10978201975576218</v>
+        <v>0.1221982400796946</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10230217448454582</v>
+        <v>9.4466637076490612E-2</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -3774,7 +3805,7 @@
         <v>0.22840426796740909</v>
       </c>
       <c r="AU4" s="17">
-        <f>(AL105+AK105+AJ105)/3</f>
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>0.22973820552682978</v>
       </c>
     </row>
@@ -4010,16 +4041,16 @@
         <v>15441000000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4150,7 +4181,7 @@
         <v>0.27010000000000001</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL106/AL3</f>
+        <f>AL107/AL3</f>
         <v>0.42008406225150519</v>
       </c>
     </row>
@@ -4159,28 +4190,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1">
         <v>99000000</v>
@@ -4272,167 +4303,167 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AL9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AL9" si="33">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="F9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="G9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.16560722649715623</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18182986833941331</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.19440782238676368</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18737046191772289</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.23171779778741627</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.19447448086237018</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18968428068080778</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18225449695865725</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.21126762981761488</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.21392563346254756</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.1867872008621243</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18579265542096127</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.20956160447326524</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.19419414474452965</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.18493785701176768</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.19184290594269299</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.17903473684210527</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.1750492972678617</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.16868244423921191</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.20384268255393023</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.2036025478259926</v>
       </c>
       <c r="AE9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.17990366407250447</v>
       </c>
       <c r="AF9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.16670914162437675</v>
       </c>
       <c r="AG9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.1676447526913972</v>
       </c>
       <c r="AH9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.17030018135089139</v>
       </c>
       <c r="AI9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.17278459251419062</v>
       </c>
       <c r="AJ9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.17003419334783959</v>
       </c>
       <c r="AK9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.16091225847323409</v>
       </c>
       <c r="AL9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="33"/>
         <v>0.16965807111212086</v>
       </c>
       <c r="AR9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4440,73 +4471,73 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1">
         <v>298749000</v>
@@ -4572,73 +4603,73 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1">
         <v>981903000</v>
@@ -4799,168 +4830,168 @@
         <v>6187000000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.47204968944099379</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AL13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AL13" si="34">C12/C3</f>
         <v>0.34351145038167941</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.41437125748502995</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.41433278418451402</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.33254297569650265</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.32564214192424901</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.53666792027077848</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.5655502392344498</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42656406825025089</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.3951509761405359</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.40302683955385649</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.41520834658414246</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.4609154539998726</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42555892357356556</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.40881632498353571</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42232866018280585</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.41939048135798102</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42158287050231358</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.39548812808978384</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.38649894905257076</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42801227041509726</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.39880223478972132</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.39851291478590539</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.43473044989006582</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42834105263157896</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42702012068521422</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.44307087009333335</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.52785482486856516</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.52944431784888835</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.4619238700526388</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.42496143945695825</v>
       </c>
       <c r="AG13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.38653647432960742</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.37272691231281302</v>
       </c>
       <c r="AI13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.36924844089276293</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.35428971091078643</v>
       </c>
       <c r="AK13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.34247703515996197</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="34"/>
         <v>0.35141429058275586</v>
       </c>
       <c r="AR13" s="17">
@@ -5021,7 +5052,7 @@
         <v>-590000</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1">
         <v>4830000</v>
@@ -5036,13 +5067,13 @@
         <v>20973000</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1">
         <v>69873000</v>
@@ -5212,16 +5243,16 @@
         <v>9343000000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5339,95 +5370,95 @@
       <c r="AL16" s="1">
         <v>11508000000</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="25">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-1.2309687433966626E-2</v>
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>12.442686924911962</v>
+        <v>12.563109167329319</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>46.060964255677042</v>
+        <v>46.506749369217829</v>
       </c>
       <c r="AU16" s="31">
-        <f>AT101/AL106</f>
-        <v>29.619516765819363</v>
+        <f>AT101/AL107</f>
+        <v>29.906179015684152</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>3407000</v>
@@ -5472,7 +5503,7 @@
         <v>112000000</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5588,10 +5619,19 @@
         <v>856000000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5706,14 +5746,41 @@
       <c r="AL19" s="10">
         <v>6976000000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AM19" s="34">
+        <v>9663000000</v>
+      </c>
+      <c r="AN19" s="34">
+        <v>10642000000</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>11649000000</v>
+      </c>
+      <c r="AP19" s="34">
+        <v>16089000000</v>
+      </c>
+      <c r="AQ19" s="34">
+        <v>18925000000</v>
+      </c>
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>1463000000</v>
       </c>
+      <c r="AS19" s="30">
+        <f>AT101/AM3</f>
+        <v>11.450333902779935</v>
+      </c>
+      <c r="AT19" s="30">
+        <f>AT101/AM28</f>
+        <v>30.754463292547275</v>
+      </c>
+      <c r="AU19" s="31">
+        <f>AT101/AM105</f>
+        <v>35.745232052973407</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5729,139 +5796,159 @@
         <v>0.54475703324808178</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AL20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AQ20" si="35">(F19/E19)-1</f>
         <v>0.2814569536423841</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.27648578811369506</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.10425101214574894</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.32203389830508478</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.20341880341880347</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>1.4065236051502148</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.33955004280211165</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.18315831516583736</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.36997361269741247</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.89855687227069359</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.14538437477216437</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.25345883280562775</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-4.2373534006645119E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.23361001809460902</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.558658086266548</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.23998398692664002</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.18965897331802606</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.27857351888362003</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>6.8207917608466007E-2</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.26796646146842662</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.30940497290727698</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>6.1528061068607753E-2</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>8.281920478698801E-2</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-0.49875340416554792</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>-1.3664019246156456E-2</v>
       </c>
       <c r="AE20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.7387252993747091</v>
       </c>
       <c r="AF20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.4381245899996713</v>
       </c>
       <c r="AG20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.38153572313110495</v>
       </c>
       <c r="AH20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.27248191517864173</v>
       </c>
       <c r="AI20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.26907707122531832</v>
       </c>
       <c r="AJ20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.2318768445214785</v>
       </c>
       <c r="AK20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>0.30837789661319071</v>
       </c>
       <c r="AL20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>5.6009688162276694E-2</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="35"/>
+        <v>0.38517775229357798</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="35"/>
+        <v>0.10131429162785888</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="35"/>
+        <v>9.4625070475474526E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="35"/>
+        <v>0.38114859644604682</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="35"/>
+        <v>0.17626950090123694</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5976,8 +6063,34 @@
       <c r="AL21" s="2">
         <v>0.3962</v>
       </c>
+      <c r="AM21" s="35">
+        <f>AM19/AM3</f>
+        <v>0.5002329554278615</v>
+      </c>
+      <c r="AN21" s="35">
+        <f t="shared" ref="AN21:AQ21" si="36">AN19/AN3</f>
+        <v>0.49426408434350472</v>
+      </c>
+      <c r="AO21" s="35">
+        <f t="shared" si="36"/>
+        <v>0.4835215009131662</v>
+      </c>
+      <c r="AP21" s="35">
+        <f t="shared" si="36"/>
+        <v>0.59509542831779849</v>
+      </c>
+      <c r="AQ21" s="35">
+        <f t="shared" si="36"/>
+        <v>0.63957418046637382</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6092,8 +6205,16 @@
       <c r="AL22" s="10">
         <v>6098000000</v>
       </c>
+      <c r="AT22" s="32">
+        <f>(-1*AL98)/AT101</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="33">
+        <f>AL107/AT101</f>
+        <v>3.3437905908192241E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6209,7 +6330,7 @@
         <v>0.34639999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +6446,7 @@
         <v>-90000000</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6441,7 +6562,7 @@
         <v>6008000000</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6557,7 +6678,7 @@
         <v>0.3412</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6673,7 +6794,7 @@
         <v>1252000000</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6788,10 +6909,25 @@
       <c r="AL28" s="11">
         <v>4756000000</v>
       </c>
+      <c r="AM28" s="36">
+        <v>7192000000</v>
+      </c>
+      <c r="AN28" s="36">
+        <v>8010000000</v>
+      </c>
+      <c r="AO28" s="36">
+        <v>9195000000</v>
+      </c>
+      <c r="AP28" s="36">
+        <v>10894000000</v>
+      </c>
+      <c r="AQ28" s="36">
+        <v>12298000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6807,139 +6943,159 @@
         <v>0.59715639810426535</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AQ29" si="37">(F28/E28)-1</f>
         <v>0.18991097922848654</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.28678304239401498</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.15503875968992253</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.30733944954128445</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.88947368421052631</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>13.838888888888889</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.63958923891533392</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.21895000554551558</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.43724208802325026</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>1.2611941718024804</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.21054380423215879</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.28548198799199465</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-6.9270195094434994E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.39156421924879448</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.69103865677469734</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.33845843009960075</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.16095508087565669</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.43098877244177158</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.20448406826681698</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.55666231558566392</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>1.0043052148985274</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>7.5085196468219095E-2</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-8.6450452484121421E-5</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-0.65178469574614994</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-7.4452126834146592E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>1.345613740941523</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.85653267169776548</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.44933272415215164</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.52942405756000466</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.13921862732913026</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>0.7821700325737313</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-8.326996197718628E-2</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="37"/>
         <v>-1.3687266694317746E-2</v>
       </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="37"/>
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="37"/>
+        <v>0.11373748609566192</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="37"/>
+        <v>0.14794007490636707</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="37"/>
+        <v>0.18477433387710707</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="37"/>
+        <v>0.12887828162291171</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7054,8 +7210,28 @@
       <c r="AL30" s="2">
         <v>0.27010000000000001</v>
       </c>
+      <c r="AM30" s="37">
+        <f>AM28/AM3</f>
+        <v>0.37231454159548583</v>
+      </c>
+      <c r="AN30" s="37">
+        <f t="shared" ref="AN30:AQ30" si="38">AN28/AN3</f>
+        <v>0.37202173610143513</v>
+      </c>
+      <c r="AO30" s="37">
+        <f t="shared" si="38"/>
+        <v>0.38166196247717082</v>
+      </c>
+      <c r="AP30" s="37">
+        <f t="shared" si="38"/>
+        <v>0.40294422251812401</v>
+      </c>
+      <c r="AQ30" s="37">
+        <f t="shared" si="38"/>
+        <v>0.41561338289962824</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7170,8 +7346,23 @@
       <c r="AL31" s="12">
         <v>10.119999999999999</v>
       </c>
+      <c r="AM31" s="38">
+        <v>15.78</v>
+      </c>
+      <c r="AN31" s="38">
+        <v>17.57</v>
+      </c>
+      <c r="AO31" s="38">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AP31" s="38">
+        <v>23.9</v>
+      </c>
+      <c r="AQ31" s="38">
+        <v>26.98</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7521,7 +7712,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7529,143 +7720,143 @@
         <v>0.25</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="39">(D34-C34)/C34</f>
         <v>8.2051283333333336E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>3.8151657537735001E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>3.4705198813056379E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>2.0552068713492303E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>2.0994831005717553E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>1.2133766983608961E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>0.35837821976979589</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>0.20501460530201396</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>1.0922118466873439E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-1.2416071878792416E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-9.5132636362776385E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-4.9599847000323653E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-1.0200843620602917E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.5917411464808776E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.4186718577535172E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-6.8649509088142017E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>2.6353282253054462E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>2.5107641649146736E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>0.20499537465309897</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.1964254796462721E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-8.3874577261909736E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-3.270969259123549E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-9.0198073914928099E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-4.1654622078870496E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.3813256442974198E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>2.1393576158545199E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-9.7297634164011555E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.5881057268722467E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-5.6490602645298165E-3</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-6.2978510764447283E-3</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-6.5452992578668313E-3</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-1.2596340613406235E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-1.3369353828126908E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-8.2474226804123713E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="39"/>
         <v>-2.0790020790020791E-2</v>
       </c>
     </row>
@@ -7674,115 +7865,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7790,115 +7981,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8022,31 +8213,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>458000000</v>
@@ -8370,7 +8561,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>500000</v>
@@ -8400,85 +8591,85 @@
         <v>7000000</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8834,64 +9025,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>2149494000</v>
@@ -8950,22 +9141,22 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>17700000</v>
@@ -8974,28 +9165,28 @@
         <v>11800000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1">
         <v>99772000</v>
@@ -9066,22 +9257,22 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1">
         <v>17700000</v>
@@ -9090,28 +9281,28 @@
         <v>11800000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1">
         <v>99772000</v>
@@ -9182,73 +9373,73 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1">
         <v>207239000</v>
@@ -9275,22 +9466,22 @@
         <v>80439000</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9298,43 +9489,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>4000000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1">
         <v>24000000</v>
@@ -9349,55 +9540,55 @@
         <v>24450000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1">
         <v>1370000000</v>
@@ -9646,115 +9837,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9878,13 +10069,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>4600000</v>
@@ -9994,76 +10185,76 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1">
         <v>8799000</v>
@@ -10081,16 +10272,16 @@
         <v>603229000</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" s="1">
         <v>3149343000</v>
@@ -10110,73 +10301,73 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1">
         <v>74768000</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1">
         <v>46634000</v>
@@ -10226,46 +10417,46 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1">
         <v>23460000</v>
@@ -10574,10 +10765,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>900000</v>
@@ -10589,55 +10780,55 @@
         <v>200000</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1">
         <v>350000000</v>
@@ -10690,73 +10881,73 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1">
         <v>36717000</v>
@@ -10824,37 +11015,37 @@
         <v>1500000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1">
         <v>17715000</v>
@@ -10922,22 +11113,22 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>100000</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>-100000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1">
         <v>-100000</v>
@@ -10946,19 +11137,19 @@
         <v>6900000</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1">
         <v>75000000</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1">
         <v>24000000</v>
@@ -10970,13 +11161,13 @@
         <v>11594000</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1">
         <v>16794000</v>
@@ -11062,19 +11253,19 @@
         <v>6900000</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L65" s="1">
         <v>75000000</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1">
         <v>24000000</v>
@@ -11086,7 +11277,7 @@
         <v>11594000</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S65" s="1">
         <v>17715000</v>
@@ -11154,115 +11345,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11386,31 +11577,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>293000000</v>
@@ -11488,13 +11679,13 @@
         <v>61000</v>
       </c>
       <c r="AJ68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12082,115 +12273,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12198,115 +12389,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12314,13 +12505,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>33700000</v>
@@ -12386,10 +12577,10 @@
         <v>386508000</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB76" s="1">
         <v>832775000</v>
@@ -12430,13 +12621,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>5600000</v>
@@ -12499,7 +12690,7 @@
         <v>270269000</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z77" s="1">
         <v>292738000</v>
@@ -12546,13 +12737,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-2100000</v>
@@ -12662,73 +12853,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>167581000</v>
@@ -12775,154 +12966,154 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="40">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>5.6887088391715405E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.0812105263157896E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.7857090339348308E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.7784717180665158E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>8.1126394492064588E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>8.0466787957266167E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>7.0036123366206432E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>5.9768756309324732E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.182985562565526E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.7504037648693116E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>7.0511508198197584E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>7.0640348150450727E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>6.7722521381057971E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>8.1790298761785757E-2</v>
       </c>
     </row>
@@ -12931,13 +13122,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>6000000</v>
@@ -13047,73 +13238,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>172287000</v>
@@ -13163,13 +13354,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-400000</v>
@@ -13193,163 +13384,163 @@
         <v>2496000</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AS83" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT83" s="40"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>-13601000</v>
@@ -13391,76 +13582,76 @@
         <v>-20000000</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AS84" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT84" s="41"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1">
         <v>38599000</v>
@@ -13513,10 +13704,10 @@
       <c r="AL85" s="1">
         <v>547000000</v>
       </c>
-      <c r="AS85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT85" s="24">
+      <c r="AS85" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT85" s="43">
         <f>AL17</f>
         <v>112000000</v>
       </c>
@@ -13526,13 +13717,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>600000</v>
@@ -13636,10 +13827,10 @@
       <c r="AL86" s="1">
         <v>122000000</v>
       </c>
-      <c r="AS86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT86" s="24">
+      <c r="AS86" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT86" s="43">
         <f>AL56</f>
         <v>587000000</v>
       </c>
@@ -13649,13 +13840,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>43800000</v>
@@ -13759,10 +13950,10 @@
       <c r="AL87" s="10">
         <v>7838000000</v>
       </c>
-      <c r="AS87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT87" s="24">
+      <c r="AS87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT87" s="43">
         <f>AL61</f>
         <v>4046000000</v>
       </c>
@@ -13772,13 +13963,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-5200000</v>
@@ -13882,170 +14073,170 @@
       <c r="AL88" s="1">
         <v>-442000000</v>
       </c>
-      <c r="AS88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT88" s="34">
+      <c r="AS88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT88" s="45">
         <f>AT85/(AT86+AT87)</f>
         <v>2.4174401036045758E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AL89" si="41">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.2833607907743002E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.3864848844101953E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="41"/>
+        <v>5.3112755768393555E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.475366679202708E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.5933014354066985E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.7674807627969218E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.4692715445490784E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="41"/>
+        <v>5.8315735675336877E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.715563431714651E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="41"/>
+        <v>6.6769781993784028E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.1564493605689784E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.356010606627721E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.7859024818657903E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.711051281434905E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.0472315483541599E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.7937549990069493E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.4856063684413683E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.232633091290335E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.1823931934103914E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.1227783878215218E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.0596730386750456E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.4642631578947371E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.9876928783769876E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="41"/>
+        <v>6.1556739969802508E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="41"/>
+        <v>4.6448052396405641E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.5767946728589982E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.8564399080723621E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.4812099555379429E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.4395244542049891E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.9521457788298747E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.5311835322254882E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="41"/>
+        <v>3.2561392601802921E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.2046246436490339E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="41"/>
+        <v>2.5105077814381462E-2</v>
+      </c>
+      <c r="AS89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2833607907743002E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3864848844101953E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3112755768393555E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.475366679202708E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5933014354066985E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7674807627969218E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4692715445490784E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.8315735675336877E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.715563431714651E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.6769781993784028E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1564493605689784E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.356010606627721E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7859024818657903E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.711051281434905E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0472315483541599E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7937549990069493E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4856063684413683E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.232633091290335E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1823931934103914E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1227783878215218E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.0596730386750456E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.4642631578947371E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9876928783769876E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1556739969802508E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6448052396405641E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5767946728589982E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8564399080723621E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4812099555379429E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4395244542049891E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9521457788298747E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5311835322254882E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2561392601802921E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2046246436490339E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5105077814381462E-2</v>
-      </c>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
+      <c r="AT89" s="43">
         <f>AL27</f>
         <v>1252000000</v>
       </c>
@@ -14055,31 +14246,31 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-15158000</v>
@@ -14100,13 +14291,13 @@
         <v>-24448000</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>7345000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1">
         <v>-15545000</v>
@@ -14157,7 +14348,7 @@
         <v>-100704000</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1">
         <v>-2682000000</v>
@@ -14165,10 +14356,10 @@
       <c r="AL90" s="1">
         <v>-126000000</v>
       </c>
-      <c r="AS90" s="23" t="s">
+      <c r="AS90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="24">
+      <c r="AT90" s="43">
         <f>AL25</f>
         <v>6008000000</v>
       </c>
@@ -14178,13 +14369,13 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-14800000</v>
@@ -14288,10 +14479,10 @@
       <c r="AL91" s="1">
         <v>-955000000</v>
       </c>
-      <c r="AS91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT91" s="34">
+      <c r="AS91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT91" s="45">
         <f>AT89/AT90</f>
         <v>0.20838881491344874</v>
       </c>
@@ -14301,25 +14492,25 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>643900000</v>
@@ -14411,10 +14602,10 @@
       <c r="AL92" s="1">
         <v>953000000</v>
       </c>
-      <c r="AS92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT92" s="36">
+      <c r="AS92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT92" s="45">
         <f>AT88*(1-AT91)</f>
         <v>1.9136726252901734E-2</v>
       </c>
@@ -14424,13 +14615,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>-2800000</v>
@@ -14469,10 +14660,10 @@
         <v>5420000</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>-16500000</v>
@@ -14481,10 +14672,10 @@
         <v>-120867000</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1">
         <v>-856000</v>
@@ -14502,55 +14693,55 @@
         <v>-143000</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC93" s="1">
         <v>24260000</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE93" s="1">
         <v>57779000</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT93" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AS93" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT93" s="41"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-22800000</v>
@@ -14654,11 +14845,12 @@
       <c r="AL94" s="10">
         <v>-570000000</v>
       </c>
-      <c r="AS94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT94" s="37">
-        <v>4.095E-2</v>
+      <c r="AS94" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14666,73 +14858,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-13875000</v>
@@ -14765,23 +14957,23 @@
         <v>-1707000</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ95" s="1">
         <v>-3150000000</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT95" s="56" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AS95" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT95" s="47" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.3127</v>
+        <v>1.3286</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14789,13 +14981,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>3300000</v>
@@ -14899,10 +15091,10 @@
       <c r="AL96" s="1">
         <v>278000000</v>
       </c>
-      <c r="AS96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT96" s="37">
+      <c r="AS96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14911,13 +15103,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-20300000</v>
@@ -14926,7 +15118,7 @@
         <v>-1100000</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-12700000</v>
@@ -15021,12 +15213,12 @@
       <c r="AL97" s="1">
         <v>-6550000000</v>
       </c>
-      <c r="AS97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT97" s="36">
+      <c r="AS97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT97" s="45">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.7461735000000008E-2</v>
+        <v>9.8300672000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15034,13 +15226,13 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>-4000000</v>
@@ -15094,73 +15286,73 @@
         <v>-3044000</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT98" s="41"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>-300000</v>
@@ -15184,10 +15376,10 @@
         <v>-3342000</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1">
         <v>2768000</v>
@@ -15196,22 +15388,22 @@
         <v>978000</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1">
         <v>80230000</v>
@@ -15264,10 +15456,10 @@
       <c r="AL99" s="1">
         <v>-553000000</v>
       </c>
-      <c r="AS99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT99" s="24">
+      <c r="AS99" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT99" s="43">
         <f>AT86+AT87</f>
         <v>4633000000</v>
       </c>
@@ -15277,13 +15469,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>-21300000</v>
@@ -15387,12 +15579,12 @@
       <c r="AL100" s="10">
         <v>-6825000000</v>
       </c>
-      <c r="AS100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT100" s="34">
+      <c r="AS100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT100" s="45">
         <f>AT99/AT103</f>
-        <v>2.0710870939910465E-2</v>
+        <v>2.0516422215835595E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15400,28 +15592,28 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1">
         <v>-1300000</v>
@@ -15510,12 +15702,12 @@
       <c r="AL101" s="1">
         <v>-51000000</v>
       </c>
-      <c r="AS101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT101" s="49" cm="1">
+      <c r="AS101" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT101" s="48" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>219065946000</v>
+        <v>221186100000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15523,13 +15715,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>-21300000</v>
@@ -15633,12 +15825,12 @@
       <c r="AL102" s="10">
         <v>392000000</v>
       </c>
-      <c r="AS102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT102" s="34">
+      <c r="AS102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT102" s="45">
         <f>AT101/AT103</f>
-        <v>0.97928912906008958</v>
+        <v>0.97948357778416439</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15646,13 +15838,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>13400000</v>
@@ -15756,41 +15948,41 @@
       <c r="AL103" s="1">
         <v>3844000000</v>
       </c>
-      <c r="AS103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT103" s="38">
+      <c r="AS103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT103" s="49">
         <f>AT99+AT101</f>
-        <v>223698946000</v>
+        <v>225819100000</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11">
         <v>190000000</v>
@@ -15879,492 +16071,617 @@
       <c r="AL104" s="11">
         <v>4236000000</v>
       </c>
-      <c r="AS104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT104" s="64"/>
+      <c r="AS104" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT104" s="41"/>
     </row>
-    <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AK105" si="42">(B22*(1-$AT$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="42"/>
+        <v>47326298.268974699</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="42"/>
+        <v>48559054.593874834</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="42"/>
+        <v>72945672.436751008</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="42"/>
+        <v>79512516.64447403</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="42"/>
+        <v>99420505.992010653</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="42"/>
+        <v>157964247.66977364</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="42"/>
+        <v>104187908.78828228</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="42"/>
+        <v>154794439.41411453</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="42"/>
+        <v>172154030.62583223</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="42"/>
+        <v>135732087.21704394</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="42"/>
+        <v>280146541.27829564</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="42"/>
+        <v>319683067.24367511</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="42"/>
+        <v>325681794.27430093</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="42"/>
+        <v>278139783.62183756</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="42"/>
+        <v>336620489.34753662</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="42"/>
+        <v>496331749.6671105</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="42"/>
+        <v>576291501.99733686</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="42"/>
+        <v>607150705.05992007</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="42"/>
+        <v>934089878.16245008</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="42"/>
+        <v>846224824.90013313</v>
+      </c>
+      <c r="Y105" s="1" t="e">
+        <f t="shared" si="42"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="42"/>
+        <v>886588486.01864195</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="42"/>
+        <v>1007838384.1544607</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="42"/>
+        <v>973350396.13848209</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="42"/>
+        <v>630143254.99334216</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="42"/>
+        <v>888024061.91744339</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="42"/>
+        <v>1133142103.195739</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="42"/>
+        <v>1630195049.2676432</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="42"/>
+        <v>2254878252.3302264</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="42"/>
+        <v>3271806870.1731024</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="42"/>
+        <v>2906336137.8162451</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="42"/>
+        <v>3878056591.2117176</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="42"/>
+        <v>5324928095.8721704</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <v>5577245006.6577892</v>
+      </c>
+      <c r="AM105" s="29">
+        <f>AL105*(1+$AT$106)</f>
+        <v>6187849044.3762836</v>
+      </c>
+      <c r="AN105" s="29">
+        <f t="shared" ref="AN105:AQ105" si="43">AM105*(1+$AT$106)</f>
+        <v>6865302806.3642082</v>
+      </c>
+      <c r="AO105" s="29">
+        <f t="shared" si="43"/>
+        <v>7616925087.3868189</v>
+      </c>
+      <c r="AP105" s="29">
+        <f t="shared" si="43"/>
+        <v>8450835953.3799181</v>
+      </c>
+      <c r="AQ105" s="29">
+        <f t="shared" si="43"/>
+        <v>9376044465.6598263</v>
+      </c>
+      <c r="AR105" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS105" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>8.0310880829015607E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.60431654676258995</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
-        <v>2.391629297458886E-2</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.36204379562043787</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22186495176848875</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25377192982456132</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.5171762401175393E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14791947190383925</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.17761565530855716</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0316231109626783</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.42054775285708912</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.10280865016032215</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.19990272634933604</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.32217643483021163</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.57619093583145786</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.8240502290022125E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.23846844652358556</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.54886852790735419</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.10582545661506637</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.14604453798047723</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.4926967080085709E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.41306594668167707</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.8405425274939655E-2</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21585277703613504</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18251519731597132</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.12765307466093145</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5537722468133206</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37015856824135995</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37590315098633109</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.0323768013872856E-2</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31799349147599876</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29653353428786744</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.4687590816623128E-2</v>
-      </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
+      <c r="AT105" s="51">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.5839555852471503E-2</v>
+        <v>9.6676511064781034E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>38600000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>41700000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>66900000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>68500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>93300000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>114000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>142930000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>152245000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>174765000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>143724000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>291993000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>414790000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>372146000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>297753000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>393682000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>620518000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>681478000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>843989000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1307228000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1168890000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>998180000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>943353000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1333020000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1228504000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>963328000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>1139150000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>1284566000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1995923000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>2734731000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>3762725000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>4027334000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>5308000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>6882000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>7396000000</v>
-      </c>
-      <c r="AM106" s="55">
-        <f>AL106*(1+$AT$106)</f>
-        <v>8192275100.9941807</v>
-      </c>
-      <c r="AN106" s="55">
-        <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
-        <v>9074279520.0607376</v>
-      </c>
-      <c r="AO106" s="55">
-        <f t="shared" si="9"/>
-        <v>10051243127.589914</v>
-      </c>
-      <c r="AP106" s="55">
-        <f t="shared" si="9"/>
-        <v>11133389508.949938</v>
-      </c>
-      <c r="AQ106" s="55">
-        <f t="shared" si="9"/>
-        <v>12332042950.762629</v>
-      </c>
-      <c r="AR106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS106" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT106" s="41">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>8.0310880829015607E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.60431654676258995</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>2.391629297458886E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>0.36204379562043787</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.22186495176848875</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.25377192982456132</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>6.5171762401175393E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.14791947190383925</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.17761565530855716</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>1.0316231109626783</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>0.42054775285708912</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-0.10280865016032215</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.19990272634933604</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.32217643483021163</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.57619093583145786</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>9.8240502290022125E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.23846844652358556</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.54886852790735419</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>-0.10582545661506637</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-0.14604453798047723</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-5.4926967080085709E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>0.41306594668167707</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>-7.8405425274939655E-2</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>-0.21585277703613504</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>0.18251519731597132</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>0.12765307466093145</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.5537722468133206</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>0.37015856824135995</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>0.37590315098633109</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>7.0323768013872856E-2</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>0.31799349147599876</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>0.29653353428786744</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>7.4687590816623128E-2</v>
+      </c>
+      <c r="AM106" s="65">
+        <v>8502000000</v>
+      </c>
+      <c r="AN106" s="65">
+        <v>9429000000</v>
+      </c>
+      <c r="AO106" s="65">
+        <v>10306000000</v>
+      </c>
+      <c r="AP106" s="65">
+        <v>14354000000</v>
+      </c>
+      <c r="AQ106" s="65">
+        <v>16926000000</v>
+      </c>
+      <c r="AR106" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS106" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT106" s="53">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>0.10766293956113859</v>
+        <v>0.10948130071201656</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="39"/>
-      <c r="AN107" s="39"/>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="42">
+      <c r="A107" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>38600000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>41700000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>66900000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>68500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>93300000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>114000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>142930000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>152245000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>174765000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>143724000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>291993000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>414790000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>372146000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>297753000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>393682000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>620518000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>681478000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>843989000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1307228000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1168890000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>998180000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>943353000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1333020000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1228504000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>963328000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>1139150000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>1284566000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1995923000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>2734731000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>3762725000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>4027334000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>5308000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>6882000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>7396000000</v>
+      </c>
+      <c r="AM107" s="27"/>
+      <c r="AN107" s="27"/>
+      <c r="AO107" s="27"/>
+      <c r="AP107" s="27"/>
+      <c r="AQ107" s="66">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>178436240493.32159</v>
-      </c>
-      <c r="AR107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS107" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT107" s="45">
+        <v>242047914194.92899</v>
+      </c>
+      <c r="AR107" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS107" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="42">
-        <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
-        <v>8192275100.9941807</v>
-      </c>
-      <c r="AN108" s="42">
-        <f t="shared" si="10"/>
-        <v>9074279520.0607376</v>
-      </c>
-      <c r="AO108" s="42">
-        <f t="shared" si="10"/>
-        <v>10051243127.589914</v>
-      </c>
-      <c r="AP108" s="42">
-        <f>AP107+AP106</f>
-        <v>11133389508.949938</v>
-      </c>
-      <c r="AQ108" s="42">
+      <c r="AM108" s="66">
+        <f t="shared" ref="AM108:AP108" si="44">AM107+AM106</f>
+        <v>8502000000</v>
+      </c>
+      <c r="AN108" s="66">
+        <f t="shared" si="44"/>
+        <v>9429000000</v>
+      </c>
+      <c r="AO108" s="66">
+        <f t="shared" si="44"/>
+        <v>10306000000</v>
+      </c>
+      <c r="AP108" s="66">
+        <f t="shared" si="44"/>
+        <v>14354000000</v>
+      </c>
+      <c r="AQ108" s="66">
         <f>AQ107+AQ106</f>
-        <v>190768283444.08423</v>
-      </c>
-      <c r="AR108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS108" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT108" s="47">
+        <v>258973914194.92899</v>
+      </c>
+      <c r="AR108" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS108" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT108" s="53">
         <f>AT105</f>
-        <v>9.5839555852471503E-2</v>
+        <v>9.6676511064781034E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN109" s="60"/>
+      <c r="AM109" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN109" s="57"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN110" s="49">
+      <c r="AM110" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN110" s="48">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>151108434440.63583</v>
+        <v>196583204103.41339</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN111" s="49">
+      <c r="AM111" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN111" s="48">
         <f>AL40</f>
         <v>6096000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN112" s="49">
+      <c r="AM112" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN112" s="48">
         <f>AT99</f>
         <v>4633000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN113" s="49">
+      <c r="AM113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN113" s="48">
         <f>AN110+AN111-AN112</f>
-        <v>152571434440.63583</v>
+        <v>198046204103.41339</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN114" s="50">
+      <c r="AM114" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN114" s="58">
         <f>AL34*(1+(5*AR16))</f>
         <v>442010686.09300858</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN115" s="58">
+      <c r="AM115" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN115" s="60">
         <f>AN113/AN114</f>
-        <v>345.17589560839605</v>
+        <v>448.05750253228086</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN116" s="57" cm="1">
+      <c r="AM116" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN116" s="61" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
-        <v>477.58</v>
+        <v>485.27</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN117" s="53">
+      <c r="AM117" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN117" s="62">
         <f>AN115/AN116-1</f>
-        <v>-0.27723963397044249</v>
+        <v>-7.6684108780100013E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN118" s="54" t="str">
+      <c r="AM118" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN118" s="63" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16455,8 +16772,9 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/796343/000079634323000007/0000796343-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/796343/000079634323000007/0000796343-23-000007-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:ADBE/explorer/revenue_proj" xr:uid="{16933A08-2247-4448-9B1D-967876D3F0C4}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{17C93E97-E72A-1744-813E-1A91BC7D35D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF7AFF5-8B27-BB47-81B3-372020731841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65D9EB-2F1C-9C4C-AED1-AF87F5291422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -930,16 +930,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -947,57 +947,45 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1005,6 +993,18 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,6 +2387,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2398,7 +2399,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2417,6 +2418,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3205,10 +3207,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ100" sqref="AQ100"/>
+      <selection pane="bottomRight" activeCell="AP91" sqref="AP91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13464,10 +13466,10 @@
       <c r="AL83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS83" s="39" t="s">
+      <c r="AS83" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="AT83" s="40"/>
+      <c r="AT83" s="65"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13584,10 +13586,10 @@
       <c r="AL84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS84" s="41" t="s">
+      <c r="AS84" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="AT84" s="41"/>
+      <c r="AT84" s="66"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13704,10 +13706,10 @@
       <c r="AL85" s="1">
         <v>547000000</v>
       </c>
-      <c r="AS85" s="42" t="s">
+      <c r="AS85" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AT85" s="43">
+      <c r="AT85" s="40">
         <f>AL17</f>
         <v>112000000</v>
       </c>
@@ -13827,10 +13829,10 @@
       <c r="AL86" s="1">
         <v>122000000</v>
       </c>
-      <c r="AS86" s="42" t="s">
+      <c r="AS86" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AT86" s="43">
+      <c r="AT86" s="40">
         <f>AL56</f>
         <v>587000000</v>
       </c>
@@ -13950,10 +13952,10 @@
       <c r="AL87" s="10">
         <v>7838000000</v>
       </c>
-      <c r="AS87" s="42" t="s">
+      <c r="AS87" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AT87" s="43">
+      <c r="AT87" s="40">
         <f>AL61</f>
         <v>4046000000</v>
       </c>
@@ -14073,10 +14075,10 @@
       <c r="AL88" s="1">
         <v>-442000000</v>
       </c>
-      <c r="AS88" s="44" t="s">
+      <c r="AS88" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="AT88" s="45">
+      <c r="AT88" s="42">
         <f>AT85/(AT86+AT87)</f>
         <v>2.4174401036045758E-2</v>
       </c>
@@ -14233,10 +14235,10 @@
         <f t="shared" si="41"/>
         <v>2.5105077814381462E-2</v>
       </c>
-      <c r="AS89" s="42" t="s">
+      <c r="AS89" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AT89" s="43">
+      <c r="AT89" s="40">
         <f>AL27</f>
         <v>1252000000</v>
       </c>
@@ -14356,10 +14358,10 @@
       <c r="AL90" s="1">
         <v>-126000000</v>
       </c>
-      <c r="AS90" s="42" t="s">
+      <c r="AS90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="43">
+      <c r="AT90" s="40">
         <f>AL25</f>
         <v>6008000000</v>
       </c>
@@ -14479,10 +14481,10 @@
       <c r="AL91" s="1">
         <v>-955000000</v>
       </c>
-      <c r="AS91" s="44" t="s">
+      <c r="AS91" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AT91" s="45">
+      <c r="AT91" s="42">
         <f>AT89/AT90</f>
         <v>0.20838881491344874</v>
       </c>
@@ -14602,10 +14604,10 @@
       <c r="AL92" s="1">
         <v>953000000</v>
       </c>
-      <c r="AS92" s="44" t="s">
+      <c r="AS92" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AT92" s="45">
+      <c r="AT92" s="42">
         <f>AT88*(1-AT91)</f>
         <v>1.9136726252901734E-2</v>
       </c>
@@ -14725,10 +14727,10 @@
       <c r="AL93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS93" s="41" t="s">
+      <c r="AS93" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="AT93" s="41"/>
+      <c r="AT93" s="66"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14845,12 +14847,12 @@
       <c r="AL94" s="10">
         <v>-570000000</v>
       </c>
-      <c r="AS94" s="42" t="s">
+      <c r="AS94" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="AT94" s="46">
+      <c r="AT94" s="43">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14968,10 +14970,10 @@
       <c r="AL95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS95" s="42" t="s">
+      <c r="AS95" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="AT95" s="47" cm="1">
+      <c r="AT95" s="44" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
         <v>1.3286</v>
       </c>
@@ -15091,10 +15093,10 @@
       <c r="AL96" s="1">
         <v>278000000</v>
       </c>
-      <c r="AS96" s="42" t="s">
+      <c r="AS96" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="AT96" s="46">
+      <c r="AT96" s="43">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15213,12 +15215,12 @@
       <c r="AL97" s="1">
         <v>-6550000000</v>
       </c>
-      <c r="AS97" s="44" t="s">
+      <c r="AS97" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AT97" s="45">
+      <c r="AT97" s="42">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.8300672000000006E-2</v>
+        <v>9.8747568000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15336,10 +15338,10 @@
       <c r="AL98" s="1">
         <v>0</v>
       </c>
-      <c r="AS98" s="41" t="s">
+      <c r="AS98" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="AT98" s="41"/>
+      <c r="AT98" s="66"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15456,10 +15458,10 @@
       <c r="AL99" s="1">
         <v>-553000000</v>
       </c>
-      <c r="AS99" s="42" t="s">
+      <c r="AS99" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AT99" s="43">
+      <c r="AT99" s="40">
         <f>AT86+AT87</f>
         <v>4633000000</v>
       </c>
@@ -15579,10 +15581,10 @@
       <c r="AL100" s="10">
         <v>-6825000000</v>
       </c>
-      <c r="AS100" s="44" t="s">
+      <c r="AS100" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AT100" s="45">
+      <c r="AT100" s="42">
         <f>AT99/AT103</f>
         <v>2.0516422215835595E-2</v>
       </c>
@@ -15702,10 +15704,10 @@
       <c r="AL101" s="1">
         <v>-51000000</v>
       </c>
-      <c r="AS101" s="42" t="s">
+      <c r="AS101" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AT101" s="48" cm="1">
+      <c r="AT101" s="45" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
         <v>221186100000</v>
       </c>
@@ -15825,10 +15827,10 @@
       <c r="AL102" s="10">
         <v>392000000</v>
       </c>
-      <c r="AS102" s="44" t="s">
+      <c r="AS102" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AT102" s="45">
+      <c r="AT102" s="42">
         <f>AT101/AT103</f>
         <v>0.97948357778416439</v>
       </c>
@@ -15948,10 +15950,10 @@
       <c r="AL103" s="1">
         <v>3844000000</v>
       </c>
-      <c r="AS103" s="44" t="s">
+      <c r="AS103" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="AT103" s="49">
+      <c r="AT103" s="46">
         <f>AT99+AT101</f>
         <v>225819100000</v>
       </c>
@@ -16071,10 +16073,10 @@
       <c r="AL104" s="11">
         <v>4236000000</v>
       </c>
-      <c r="AS104" s="41" t="s">
+      <c r="AS104" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AT104" s="41"/>
+      <c r="AT104" s="66"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16251,12 +16253,12 @@
       <c r="AR105" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AS105" s="50" t="s">
+      <c r="AS105" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AT105" s="51">
+      <c r="AT105" s="48">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.6676511064781034E-2</v>
+        <v>9.7114238357758467E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16265,177 +16267,177 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AL106" si="44">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="44"/>
         <v>8.0310880829015607E-2</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.60431654676258995</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="44"/>
         <v>2.391629297458886E-2</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.36204379562043787</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.22186495176848875</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.25377192982456132</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="44"/>
         <v>6.5171762401175393E-2</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.14791947190383925</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.17761565530855716</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="44"/>
         <v>1.0316231109626783</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.42054775285708912</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.10280865016032215</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.19990272634933604</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.32217643483021163</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.57619093583145786</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="44"/>
         <v>9.8240502290022125E-2</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.23846844652358556</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.54886852790735419</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.10582545661506637</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.14604453798047723</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="44"/>
         <v>-5.4926967080085709E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.41306594668167707</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="44"/>
         <v>-7.8405425274939655E-2</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="44"/>
         <v>-0.21585277703613504</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.18251519731597132</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.12765307466093145</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.5537722468133206</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.37015856824135995</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.37590315098633109</v>
       </c>
       <c r="AI106" s="15">
-        <f>(AI107/AH107)-1</f>
+        <f t="shared" si="44"/>
         <v>7.0323768013872856E-2</v>
       </c>
       <c r="AJ106" s="15">
-        <f>(AJ107/AI107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.31799349147599876</v>
       </c>
       <c r="AK106" s="15">
-        <f>(AK107/AJ107)-1</f>
+        <f t="shared" si="44"/>
         <v>0.29653353428786744</v>
       </c>
       <c r="AL106" s="15">
-        <f>(AL107/AK107)-1</f>
+        <f t="shared" si="44"/>
         <v>7.4687590816623128E-2</v>
       </c>
-      <c r="AM106" s="65">
+      <c r="AM106" s="61">
         <v>8502000000</v>
       </c>
-      <c r="AN106" s="65">
+      <c r="AN106" s="61">
         <v>9429000000</v>
       </c>
-      <c r="AO106" s="65">
+      <c r="AO106" s="61">
         <v>10306000000</v>
       </c>
-      <c r="AP106" s="65">
+      <c r="AP106" s="61">
         <v>14354000000</v>
       </c>
-      <c r="AQ106" s="65">
+      <c r="AQ106" s="61">
         <v>16926000000</v>
       </c>
       <c r="AR106" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AS106" s="52" t="s">
+      <c r="AS106" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AT106" s="53">
+      <c r="AT106" s="50">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>0.10948130071201656</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="60" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16553,135 +16555,135 @@
       <c r="AN107" s="27"/>
       <c r="AO107" s="27"/>
       <c r="AP107" s="27"/>
-      <c r="AQ107" s="66">
+      <c r="AQ107" s="62">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>242047914194.92899</v>
+        <v>240578703943.74734</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AS107" s="54" t="s">
+      <c r="AS107" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="AT107" s="55">
+      <c r="AT107" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="66">
-        <f t="shared" ref="AM108:AP108" si="44">AM107+AM106</f>
+      <c r="AM108" s="62">
+        <f t="shared" ref="AM108:AP108" si="45">AM107+AM106</f>
         <v>8502000000</v>
       </c>
-      <c r="AN108" s="66">
-        <f t="shared" si="44"/>
+      <c r="AN108" s="62">
+        <f t="shared" si="45"/>
         <v>9429000000</v>
       </c>
-      <c r="AO108" s="66">
-        <f t="shared" si="44"/>
+      <c r="AO108" s="62">
+        <f t="shared" si="45"/>
         <v>10306000000</v>
       </c>
-      <c r="AP108" s="66">
-        <f t="shared" si="44"/>
+      <c r="AP108" s="62">
+        <f t="shared" si="45"/>
         <v>14354000000</v>
       </c>
-      <c r="AQ108" s="66">
+      <c r="AQ108" s="62">
         <f>AQ107+AQ106</f>
-        <v>258973914194.92899</v>
+        <v>257504703943.74734</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AS108" s="56" t="s">
+      <c r="AS108" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="AT108" s="53">
+      <c r="AT108" s="50">
         <f>AT105</f>
-        <v>9.6676511064781034E-2</v>
+        <v>9.7114238357758467E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="57" t="s">
+      <c r="AM109" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AN109" s="57"/>
+      <c r="AN109" s="63"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="58" t="s">
+      <c r="AM110" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AN110" s="48">
+      <c r="AN110" s="45">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>196583204103.41339</v>
+        <v>195298939422.05533</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="58" t="s">
+      <c r="AM111" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="AN111" s="48">
+      <c r="AN111" s="45">
         <f>AL40</f>
         <v>6096000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="58" t="s">
+      <c r="AM112" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="AN112" s="48">
+      <c r="AN112" s="45">
         <f>AT99</f>
         <v>4633000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="58" t="s">
+      <c r="AM113" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="AN113" s="48">
+      <c r="AN113" s="45">
         <f>AN110+AN111-AN112</f>
-        <v>198046204103.41339</v>
+        <v>196761939422.05533</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="58" t="s">
+      <c r="AM114" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="AN114" s="58">
+      <c r="AN114" s="54">
         <f>AL34*(1+(5*AR16))</f>
         <v>442010686.09300858</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="59" t="s">
+      <c r="AM115" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="AN115" s="60">
+      <c r="AN115" s="56">
         <f>AN113/AN114</f>
-        <v>448.05750253228086</v>
+        <v>445.15199657560402</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="58" t="s">
+      <c r="AM116" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AN116" s="61" cm="1">
+      <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price",TRUE)</f>
         <v>485.27</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="59" t="s">
+      <c r="AM117" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AN117" s="62">
+      <c r="AN117" s="58">
         <f>AN115/AN116-1</f>
-        <v>-7.6684108780100013E-2</v>
+        <v>-8.2671509519228414E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="59" t="s">
+      <c r="AM118" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AN118" s="63" t="str">
+      <c r="AN118" s="59" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Adobe.xlsx
+++ b/Technology/Software/Adobe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C65D9EB-2F1C-9C4C-AED1-AF87F5291422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB73C0F2-F49E-F14B-BADA-696DFDAEED43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2386,9 +2386,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Top 10"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="High Quality"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2399,7 +2400,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0239999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2419,6 +2420,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3210,7 +3212,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AI83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP91" sqref="AP91"/>
+      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14852,7 +14854,7 @@
       </c>
       <c r="AT94" s="43">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0239999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15220,7 +15222,7 @@
       </c>
       <c r="AT97" s="42">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.8747568000000008E-2</v>
+        <v>9.8379536000000017E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16258,7 +16260,7 @@
       </c>
       <c r="AT105" s="48">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.7114238357758467E-2</v>
+        <v>9.6753757057659415E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16557,7 +16559,7 @@
       <c r="AP107" s="27"/>
       <c r="AQ107" s="62">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>240578703943.74734</v>
+        <v>241787339247.73703</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>146</v>
@@ -16588,7 +16590,7 @@
       </c>
       <c r="AQ108" s="62">
         <f>AQ107+AQ106</f>
-        <v>257504703943.74734</v>
+        <v>258713339247.73703</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>143</v>
@@ -16598,7 +16600,7 @@
       </c>
       <c r="AT108" s="50">
         <f>AT105</f>
-        <v>9.7114238357758467E-2</v>
+        <v>9.6753757057659415E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16613,7 +16615,7 @@
       </c>
       <c r="AN110" s="45">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>195298939422.05533</v>
+        <v>196355419358.54993</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16640,7 +16642,7 @@
       </c>
       <c r="AN113" s="45">
         <f>AN110+AN111-AN112</f>
-        <v>196761939422.05533</v>
+        <v>197818419358.54993</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16658,7 +16660,7 @@
       </c>
       <c r="AN115" s="56">
         <f>AN113/AN114</f>
-        <v>445.15199657560402</v>
+        <v>447.54216488993359</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16676,7 +16678,7 @@
       </c>
       <c r="AN117" s="58">
         <f>AN115/AN116-1</f>
-        <v>-8.2671509519228414E-2</v>
+        <v>-7.7746069425405184E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
